--- a/Excel-XLSX/UN-SAL.xlsx
+++ b/Excel-XLSX/UN-SAL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>c4fF5g</t>
+    <t>hu58KU</t>
   </si>
   <si>
     <t>2009</t>
@@ -312,6 +312,18 @@
     <t>30</t>
   </si>
   <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>56</t>
   </si>
   <si>
@@ -324,7 +336,7 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>31</t>
+    <t>32</t>
   </si>
   <si>
     <t>1993</t>
@@ -342,24 +354,21 @@
     <t>GTM</t>
   </si>
   <si>
-    <t>32</t>
+    <t>33</t>
   </si>
   <si>
     <t>1994</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>2000</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>36</t>
   </si>
   <si>
@@ -369,6 +378,9 @@
     <t>39</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>83</t>
   </si>
   <si>
@@ -381,9 +393,6 @@
     <t>HND</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>41</t>
   </si>
   <si>
@@ -414,7 +423,7 @@
     <t>53</t>
   </si>
   <si>
-    <t>54</t>
+    <t>55</t>
   </si>
   <si>
     <t>92</t>
@@ -426,9 +435,6 @@
     <t>IRQ</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
     <t>57</t>
   </si>
   <si>
@@ -450,6 +456,9 @@
     <t>63</t>
   </si>
   <si>
+    <t>64</t>
+  </si>
+  <si>
     <t>124</t>
   </si>
   <si>
@@ -459,9 +468,6 @@
     <t>MEX</t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
     <t>65</t>
   </si>
   <si>
@@ -486,6 +492,9 @@
     <t>72</t>
   </si>
   <si>
+    <t>73</t>
+  </si>
+  <si>
     <t>137</t>
   </si>
   <si>
@@ -498,7 +507,7 @@
     <t>NPL</t>
   </si>
   <si>
-    <t>73</t>
+    <t>74</t>
   </si>
   <si>
     <t>1979</t>
@@ -516,7 +525,7 @@
     <t>250</t>
   </si>
   <si>
-    <t>74</t>
+    <t>75</t>
   </si>
   <si>
     <t>1985</t>
@@ -525,7 +534,7 @@
     <t>210</t>
   </si>
   <si>
-    <t>75</t>
+    <t>76</t>
   </si>
   <si>
     <t>1986</t>
@@ -534,7 +543,7 @@
     <t>310</t>
   </si>
   <si>
-    <t>76</t>
+    <t>77</t>
   </si>
   <si>
     <t>1987</t>
@@ -543,22 +552,22 @@
     <t>300</t>
   </si>
   <si>
-    <t>77</t>
-  </si>
-  <si>
     <t>1988</t>
   </si>
   <si>
     <t>350</t>
   </si>
   <si>
+    <t>79</t>
+  </si>
+  <si>
     <t>1989</t>
   </si>
   <si>
     <t>630</t>
   </si>
   <si>
-    <t>79</t>
+    <t>80</t>
   </si>
   <si>
     <t>1990</t>
@@ -570,7 +579,7 @@
     <t>150</t>
   </si>
   <si>
-    <t>80</t>
+    <t>81</t>
   </si>
   <si>
     <t>1991</t>
@@ -582,7 +591,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>81</t>
+    <t>82</t>
   </si>
   <si>
     <t>1992</t>
@@ -594,25 +603,25 @@
     <t>120</t>
   </si>
   <si>
-    <t>82</t>
-  </si>
-  <si>
     <t>155</t>
   </si>
   <si>
+    <t>84</t>
+  </si>
+  <si>
     <t>148</t>
   </si>
   <si>
-    <t>84</t>
-  </si>
-  <si>
     <t>85</t>
   </si>
   <si>
+    <t>86</t>
+  </si>
+  <si>
     <t>1996</t>
   </si>
   <si>
-    <t>86</t>
+    <t>87</t>
   </si>
   <si>
     <t>1997</t>
@@ -621,39 +630,36 @@
     <t>106</t>
   </si>
   <si>
-    <t>87</t>
+    <t>88</t>
   </si>
   <si>
     <t>1998</t>
   </si>
   <si>
-    <t>88</t>
+    <t>89</t>
   </si>
   <si>
     <t>1999</t>
   </si>
   <si>
-    <t>89</t>
-  </si>
-  <si>
     <t>90</t>
   </si>
   <si>
     <t>91</t>
   </si>
   <si>
+    <t>93</t>
+  </si>
+  <si>
     <t>230</t>
   </si>
   <si>
-    <t>93</t>
+    <t>94</t>
   </si>
   <si>
     <t>229</t>
   </si>
   <si>
-    <t>94</t>
-  </si>
-  <si>
     <t>95</t>
   </si>
   <si>
@@ -708,6 +714,9 @@
     <t>113</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
     <t>141</t>
   </si>
   <si>
@@ -720,19 +729,19 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>114</t>
+    <t>115</t>
   </si>
   <si>
     <t>10100</t>
   </si>
   <si>
-    <t>115</t>
+    <t>116</t>
   </si>
   <si>
     <t>9800</t>
   </si>
   <si>
-    <t>116</t>
+    <t>117</t>
   </si>
   <si>
     <t>71500</t>
@@ -741,7 +750,7 @@
     <t>4200</t>
   </si>
   <si>
-    <t>117</t>
+    <t>118</t>
   </si>
   <si>
     <t>71501</t>
@@ -750,25 +759,25 @@
     <t>4700</t>
   </si>
   <si>
-    <t>118</t>
+    <t>119</t>
   </si>
   <si>
     <t>6800</t>
   </si>
   <si>
-    <t>119</t>
-  </si>
-  <si>
     <t>1700</t>
   </si>
   <si>
+    <t>121</t>
+  </si>
+  <si>
     <t>2634</t>
   </si>
   <si>
     <t>391</t>
   </si>
   <si>
-    <t>121</t>
+    <t>122</t>
   </si>
   <si>
     <t>6205</t>
@@ -777,18 +786,15 @@
     <t>85061</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>9275</t>
-  </si>
-  <si>
-    <t>49305</t>
-  </si>
-  <si>
     <t>123</t>
   </si>
   <si>
+    <t>118591</t>
+  </si>
+  <si>
+    <t>346175</t>
+  </si>
+  <si>
     <t>185</t>
   </si>
   <si>
@@ -816,6 +822,9 @@
     <t>130</t>
   </si>
   <si>
+    <t>131</t>
+  </si>
+  <si>
     <t>202</t>
   </si>
   <si>
@@ -825,15 +834,15 @@
     <t>USA</t>
   </si>
   <si>
-    <t>131</t>
-  </si>
-  <si>
     <t>132</t>
   </si>
   <si>
     <t>133</t>
   </si>
   <si>
+    <t>134</t>
+  </si>
+  <si>
     <t>207</t>
   </si>
   <si>
@@ -843,15 +852,15 @@
     <t>VEN</t>
   </si>
   <si>
-    <t>134</t>
-  </si>
-  <si>
     <t>135</t>
   </si>
   <si>
     <t>136</t>
   </si>
   <si>
+    <t>138</t>
+  </si>
+  <si>
     <t>1972</t>
   </si>
   <si>
@@ -867,7 +876,7 @@
     <t>UNK</t>
   </si>
   <si>
-    <t>138</t>
+    <t>139</t>
   </si>
   <si>
     <t>1980</t>
@@ -876,22 +885,22 @@
     <t>390</t>
   </si>
   <si>
-    <t>139</t>
-  </si>
-  <si>
     <t>20000</t>
   </si>
   <si>
     <t>20100</t>
   </si>
   <si>
+    <t>142</t>
+  </si>
+  <si>
     <t>19736</t>
   </si>
   <si>
-    <t>142</t>
-  </si>
-  <si>
     <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1285,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V144"/>
+  <dimension ref="A1:V145"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1416,8 +1425,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -1484,8 +1493,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>34</v>
+      <c r="V3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -1552,8 +1561,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>34</v>
+      <c r="V4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1620,8 +1629,8 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>34</v>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1688,8 +1697,8 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>34</v>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1756,8 +1765,8 @@
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>34</v>
+      <c r="V7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1824,8 +1833,8 @@
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>34</v>
+      <c r="V8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1892,8 +1901,8 @@
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>34</v>
+      <c r="V9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1960,8 +1969,8 @@
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>34</v>
+      <c r="V10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -2028,8 +2037,8 @@
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>34</v>
+      <c r="V11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -2096,8 +2105,8 @@
       <c r="U12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>34</v>
+      <c r="V12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -2164,8 +2173,8 @@
       <c r="U13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>34</v>
+      <c r="V13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2232,8 +2241,8 @@
       <c r="U14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>34</v>
+      <c r="V14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -2300,8 +2309,8 @@
       <c r="U15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>34</v>
+      <c r="V15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -2368,8 +2377,8 @@
       <c r="U16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>34</v>
+      <c r="V16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -2436,8 +2445,8 @@
       <c r="U17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>34</v>
+      <c r="V17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -2504,8 +2513,8 @@
       <c r="U18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>34</v>
+      <c r="V18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -2572,8 +2581,8 @@
       <c r="U19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>34</v>
+      <c r="V19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -2640,8 +2649,8 @@
       <c r="U20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>34</v>
+      <c r="V20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -2708,8 +2717,8 @@
       <c r="U21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>34</v>
+      <c r="V21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -2776,8 +2785,8 @@
       <c r="U22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>34</v>
+      <c r="V22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -2844,8 +2853,8 @@
       <c r="U23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>34</v>
+      <c r="V23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -2912,8 +2921,8 @@
       <c r="U24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>34</v>
+      <c r="V24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -3028,7 +3037,7 @@
         <v>52</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>32</v>
@@ -3184,8 +3193,8 @@
       <c r="U28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>34</v>
+      <c r="V28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -3300,7 +3309,7 @@
         <v>32</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>32</v>
@@ -3338,7 +3347,7 @@
         <v>97</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>98</v>
@@ -3350,7 +3359,7 @@
         <v>100</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -3368,7 +3377,7 @@
         <v>32</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>32</v>
@@ -3388,8 +3397,8 @@
       <c r="U31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>34</v>
+      <c r="V31" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -3403,23 +3412,23 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="G32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="H32" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="J32" s="2" t="s">
         <v>28</v>
       </c>
@@ -3433,10 +3442,10 @@
         <v>31</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>32</v>
@@ -3456,8 +3465,8 @@
       <c r="U32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>34</v>
+      <c r="V32" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -3471,22 +3480,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="G33" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="H33" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -3501,7 +3510,7 @@
         <v>31</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>32</v>
@@ -3524,8 +3533,8 @@
       <c r="U33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>34</v>
+      <c r="V33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -3539,22 +3548,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="I34" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3575,7 +3584,7 @@
         <v>32</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>32</v>
@@ -3592,8 +3601,8 @@
       <c r="U34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>34</v>
+      <c r="V34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -3607,23 +3616,23 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
       </c>
@@ -3637,13 +3646,13 @@
         <v>31</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="Q35" s="2" t="s">
         <v>32</v>
@@ -3660,8 +3669,8 @@
       <c r="U35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>34</v>
+      <c r="V35" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -3675,22 +3684,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>28</v>
@@ -3708,11 +3717,11 @@
         <v>32</v>
       </c>
       <c r="O36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P36" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q36" s="2" t="s">
         <v>32</v>
       </c>
@@ -3728,8 +3737,8 @@
       <c r="U36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>34</v>
+      <c r="V36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -3743,22 +3752,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3776,7 +3785,7 @@
         <v>32</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>32</v>
@@ -3796,8 +3805,8 @@
       <c r="U37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>34</v>
+      <c r="V37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -3811,22 +3820,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -3841,10 +3850,10 @@
         <v>31</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>32</v>
@@ -3882,19 +3891,19 @@
         <v>37</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -3912,7 +3921,7 @@
         <v>53</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>32</v>
@@ -3947,22 +3956,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -3977,10 +3986,10 @@
         <v>31</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>32</v>
@@ -4000,8 +4009,8 @@
       <c r="U40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>34</v>
+      <c r="V40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -4015,22 +4024,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -4045,11 +4054,11 @@
         <v>31</v>
       </c>
       <c r="N41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O41" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O41" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="P41" s="2" t="s">
         <v>32</v>
       </c>
@@ -4068,8 +4077,8 @@
       <c r="U41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>34</v>
+      <c r="V41" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -4083,22 +4092,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="H42" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -4113,10 +4122,10 @@
         <v>31</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>32</v>
@@ -4136,8 +4145,8 @@
       <c r="U42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>34</v>
+      <c r="V42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -4151,22 +4160,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="I43" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -4181,10 +4190,10 @@
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>32</v>
@@ -4204,8 +4213,8 @@
       <c r="U43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>34</v>
+      <c r="V43" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
@@ -4219,23 +4228,23 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="J44" s="2" t="s">
         <v>28</v>
       </c>
@@ -4249,10 +4258,10 @@
         <v>31</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>32</v>
@@ -4272,8 +4281,8 @@
       <c r="U44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>34</v>
+      <c r="V44" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -4290,19 +4299,19 @@
         <v>43</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -4317,10 +4326,10 @@
         <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>32</v>
@@ -4340,8 +4349,8 @@
       <c r="U45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>34</v>
+      <c r="V45" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46">
@@ -4358,19 +4367,19 @@
         <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>28</v>
@@ -4385,7 +4394,7 @@
         <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>32</v>
@@ -4408,8 +4417,8 @@
       <c r="U46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>34</v>
+      <c r="V46" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
@@ -4426,19 +4435,19 @@
         <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>28</v>
@@ -4453,7 +4462,7 @@
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>32</v>
@@ -4476,8 +4485,8 @@
       <c r="U47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>34</v>
+      <c r="V47" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -4491,22 +4500,22 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>28</v>
@@ -4521,10 +4530,10 @@
         <v>31</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>32</v>
@@ -4544,8 +4553,8 @@
       <c r="U48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>34</v>
+      <c r="V48" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -4559,22 +4568,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>28</v>
@@ -4589,10 +4598,10 @@
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>32</v>
@@ -4612,8 +4621,8 @@
       <c r="U49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>34</v>
+      <c r="V49" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
@@ -4627,22 +4636,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>28</v>
@@ -4657,10 +4666,10 @@
         <v>31</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>32</v>
@@ -4680,8 +4689,8 @@
       <c r="U50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>34</v>
+      <c r="V50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -4695,22 +4704,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>28</v>
@@ -4728,7 +4737,7 @@
         <v>74</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>32</v>
@@ -4748,8 +4757,8 @@
       <c r="U51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>34</v>
+      <c r="V51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -4763,22 +4772,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>28</v>
@@ -4793,10 +4802,10 @@
         <v>31</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>32</v>
@@ -4816,8 +4825,8 @@
       <c r="U52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>34</v>
+      <c r="V52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -4831,22 +4840,22 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>28</v>
@@ -4861,10 +4870,10 @@
         <v>31</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>32</v>
@@ -4899,22 +4908,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>28</v>
@@ -4929,10 +4938,10 @@
         <v>31</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>32</v>
@@ -4967,22 +4976,22 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>28</v>
@@ -4997,10 +5006,10 @@
         <v>31</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>32</v>
@@ -5020,8 +5029,8 @@
       <c r="U55" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>34</v>
+      <c r="V55" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
@@ -5035,22 +5044,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="G56" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>28</v>
@@ -5088,8 +5097,8 @@
       <c r="U56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>34</v>
+      <c r="V56" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
@@ -5103,22 +5112,22 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>28</v>
@@ -5156,8 +5165,8 @@
       <c r="U57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>34</v>
+      <c r="V57" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -5171,22 +5180,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="H58" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>28</v>
@@ -5224,8 +5233,8 @@
       <c r="U58" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>34</v>
+      <c r="V58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
@@ -5239,22 +5248,22 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="I59" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>28</v>
@@ -5292,8 +5301,8 @@
       <c r="U59" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>34</v>
+      <c r="V59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
@@ -5307,22 +5316,22 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>28</v>
@@ -5360,8 +5369,8 @@
       <c r="U60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>34</v>
+      <c r="V60" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -5375,22 +5384,22 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>28</v>
@@ -5428,8 +5437,8 @@
       <c r="U61" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>34</v>
+      <c r="V61" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
@@ -5443,22 +5452,22 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>28</v>
@@ -5511,22 +5520,22 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>28</v>
@@ -5579,22 +5588,22 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>28</v>
@@ -5632,8 +5641,8 @@
       <c r="U64" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>34</v>
+      <c r="V64" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65">
@@ -5647,22 +5656,22 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="G65" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>28</v>
@@ -5700,8 +5709,8 @@
       <c r="U65" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>34</v>
+      <c r="V65" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="66">
@@ -5715,22 +5724,22 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="H66" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>28</v>
@@ -5768,8 +5777,8 @@
       <c r="U66" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>34</v>
+      <c r="V66" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67">
@@ -5783,22 +5792,22 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="I67" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>28</v>
@@ -5836,8 +5845,8 @@
       <c r="U67" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>34</v>
+      <c r="V67" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68">
@@ -5851,22 +5860,22 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>28</v>
@@ -5904,8 +5913,8 @@
       <c r="U68" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>34</v>
+      <c r="V68" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="69">
@@ -5919,22 +5928,22 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>28</v>
@@ -5972,8 +5981,8 @@
       <c r="U69" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>34</v>
+      <c r="V69" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70">
@@ -5987,22 +5996,22 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>28</v>
@@ -6040,8 +6049,8 @@
       <c r="U70" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>34</v>
+      <c r="V70" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71">
@@ -6055,22 +6064,22 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>28</v>
@@ -6108,8 +6117,8 @@
       <c r="U71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>34</v>
+      <c r="V71" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72">
@@ -6123,22 +6132,22 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>28</v>
@@ -6153,10 +6162,10 @@
         <v>31</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>32</v>
@@ -6191,22 +6200,22 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>28</v>
@@ -6224,7 +6233,7 @@
         <v>32</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="P73" s="2" t="s">
         <v>32</v>
@@ -6244,8 +6253,8 @@
       <c r="U73" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>34</v>
+      <c r="V73" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74">
@@ -6259,23 +6268,23 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="H74" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="I74" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="J74" s="2" t="s">
         <v>28</v>
       </c>
@@ -6292,10 +6301,10 @@
         <v>32</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="Q74" s="2" t="s">
         <v>32</v>
@@ -6312,8 +6321,8 @@
       <c r="U74" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>34</v>
+      <c r="V74" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75">
@@ -6327,22 +6336,22 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="H75" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I75" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>28</v>
@@ -6357,14 +6366,14 @@
         <v>31</v>
       </c>
       <c r="N75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P75" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="O75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q75" s="2" t="s">
         <v>32</v>
       </c>
@@ -6380,8 +6389,8 @@
       <c r="U75" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>34</v>
+      <c r="V75" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76">
@@ -6401,16 +6410,16 @@
         <v>170</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>28</v>
@@ -6448,8 +6457,8 @@
       <c r="U76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>34</v>
+      <c r="V76" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
@@ -6469,16 +6478,16 @@
         <v>173</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>28</v>
@@ -6516,8 +6525,8 @@
       <c r="U77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>34</v>
+      <c r="V77" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78">
@@ -6537,16 +6546,16 @@
         <v>176</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>28</v>
@@ -6567,7 +6576,7 @@
         <v>32</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="Q78" s="2" t="s">
         <v>32</v>
@@ -6584,8 +6593,8 @@
       <c r="U78" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>34</v>
+      <c r="V78" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
@@ -6599,22 +6608,22 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>178</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>28</v>
@@ -6635,7 +6644,7 @@
         <v>32</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="Q79" s="2" t="s">
         <v>32</v>
@@ -6652,8 +6661,8 @@
       <c r="U79" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>34</v>
+      <c r="V79" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
@@ -6673,16 +6682,16 @@
         <v>181</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>28</v>
@@ -6703,7 +6712,7 @@
         <v>32</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>32</v>
@@ -6720,8 +6729,8 @@
       <c r="U80" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>34</v>
+      <c r="V80" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81">
@@ -6735,44 +6744,44 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="F81" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N81" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N81" s="2" t="s">
+      <c r="O81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P81" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="O81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P81" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="Q81" s="2" t="s">
         <v>32</v>
       </c>
@@ -6788,8 +6797,8 @@
       <c r="U81" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>34</v>
+      <c r="V81" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="82">
@@ -6803,44 +6812,44 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="F82" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N82" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N82" s="2" t="s">
+      <c r="O82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P82" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="O82" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P82" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="Q82" s="2" t="s">
         <v>32</v>
       </c>
@@ -6856,8 +6865,8 @@
       <c r="U82" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>34</v>
+      <c r="V82" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83">
@@ -6871,22 +6880,22 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>28</v>
@@ -6907,7 +6916,7 @@
         <v>32</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="Q83" s="2" t="s">
         <v>32</v>
@@ -6924,8 +6933,8 @@
       <c r="U83" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>34</v>
+      <c r="V83" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84">
@@ -6939,22 +6948,22 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>28</v>
@@ -6969,13 +6978,13 @@
         <v>31</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="Q84" s="2" t="s">
         <v>32</v>
@@ -6992,8 +7001,8 @@
       <c r="U84" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>34</v>
+      <c r="V84" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85">
@@ -7007,22 +7016,22 @@
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>28</v>
@@ -7037,13 +7046,13 @@
         <v>31</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="Q85" s="2" t="s">
         <v>32</v>
@@ -7060,8 +7069,8 @@
       <c r="U85" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>34</v>
+      <c r="V85" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86">
@@ -7075,38 +7084,38 @@
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E86" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N86" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N86" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="O86" s="2" t="s">
         <v>32</v>
       </c>
@@ -7128,8 +7137,8 @@
       <c r="U86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>34</v>
+      <c r="V86" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87">
@@ -7143,22 +7152,22 @@
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>28</v>
@@ -7173,7 +7182,7 @@
         <v>31</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>32</v>
@@ -7196,8 +7205,8 @@
       <c r="U87" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>34</v>
+      <c r="V87" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88">
@@ -7217,16 +7226,16 @@
         <v>202</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>28</v>
@@ -7241,7 +7250,7 @@
         <v>31</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>32</v>
@@ -7264,8 +7273,8 @@
       <c r="U88" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>34</v>
+      <c r="V88" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89">
@@ -7279,22 +7288,22 @@
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>28</v>
@@ -7309,7 +7318,7 @@
         <v>31</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>32</v>
@@ -7332,8 +7341,8 @@
       <c r="U89" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>34</v>
+      <c r="V89" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="90">
@@ -7347,22 +7356,22 @@
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>112</v>
+        <v>207</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>28</v>
@@ -7377,7 +7386,7 @@
         <v>31</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="O90" s="2" t="s">
         <v>32</v>
@@ -7400,8 +7409,8 @@
       <c r="U90" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>34</v>
+      <c r="V90" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="91">
@@ -7415,22 +7424,22 @@
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>28</v>
@@ -7445,7 +7454,7 @@
         <v>31</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="O91" s="2" t="s">
         <v>32</v>
@@ -7468,8 +7477,8 @@
       <c r="U91" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>34</v>
+      <c r="V91" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="92">
@@ -7483,22 +7492,22 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>28</v>
@@ -7513,7 +7522,7 @@
         <v>31</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O92" s="2" t="s">
         <v>32</v>
@@ -7536,8 +7545,8 @@
       <c r="U92" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>34</v>
+      <c r="V92" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -7551,22 +7560,22 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>28</v>
@@ -7581,7 +7590,7 @@
         <v>31</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>208</v>
+        <v>102</v>
       </c>
       <c r="O93" s="2" t="s">
         <v>32</v>
@@ -7604,8 +7613,8 @@
       <c r="U93" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>34</v>
+      <c r="V93" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="94">
@@ -7619,22 +7628,22 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>28</v>
@@ -7649,7 +7658,7 @@
         <v>31</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O94" s="2" t="s">
         <v>32</v>
@@ -7672,8 +7681,8 @@
       <c r="U94" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>34</v>
+      <c r="V94" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95">
@@ -7687,22 +7696,22 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>28</v>
@@ -7717,13 +7726,13 @@
         <v>31</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="O95" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="Q95" s="2" t="s">
         <v>32</v>
@@ -7740,8 +7749,8 @@
       <c r="U95" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>34</v>
+      <c r="V95" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96">
@@ -7755,22 +7764,22 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>28</v>
@@ -7785,13 +7794,13 @@
         <v>31</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Q96" s="2" t="s">
         <v>32</v>
@@ -7808,8 +7817,8 @@
       <c r="U96" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>34</v>
+      <c r="V96" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="97">
@@ -7823,22 +7832,22 @@
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>28</v>
@@ -7853,7 +7862,7 @@
         <v>31</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O97" s="2" t="s">
         <v>32</v>
@@ -7876,8 +7885,8 @@
       <c r="U97" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>34</v>
+      <c r="V97" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="98">
@@ -7891,22 +7900,22 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>28</v>
@@ -7921,7 +7930,7 @@
         <v>31</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>32</v>
@@ -7944,8 +7953,8 @@
       <c r="U98" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>34</v>
+      <c r="V98" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="99">
@@ -7959,22 +7968,22 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>28</v>
@@ -7989,7 +7998,7 @@
         <v>31</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>32</v>
@@ -8012,8 +8021,8 @@
       <c r="U99" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>34</v>
+      <c r="V99" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="100">
@@ -8027,22 +8036,22 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>28</v>
@@ -8080,8 +8089,8 @@
       <c r="U100" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>34</v>
+      <c r="V100" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="101">
@@ -8095,22 +8104,22 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>28</v>
@@ -8125,7 +8134,7 @@
         <v>31</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>32</v>
@@ -8148,8 +8157,8 @@
       <c r="U101" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>34</v>
+      <c r="V101" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="102">
@@ -8163,22 +8172,22 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>28</v>
@@ -8193,7 +8202,7 @@
         <v>31</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="O102" s="2" t="s">
         <v>32</v>
@@ -8216,8 +8225,8 @@
       <c r="U102" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>34</v>
+      <c r="V102" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="103">
@@ -8231,22 +8240,22 @@
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>28</v>
@@ -8284,8 +8293,8 @@
       <c r="U103" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>34</v>
+      <c r="V103" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="104">
@@ -8299,22 +8308,22 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>28</v>
@@ -8329,7 +8338,7 @@
         <v>31</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O104" s="2" t="s">
         <v>32</v>
@@ -8352,8 +8361,8 @@
       <c r="U104" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>34</v>
+      <c r="V104" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="105">
@@ -8367,22 +8376,22 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>28</v>
@@ -8420,8 +8429,8 @@
       <c r="U105" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>34</v>
+      <c r="V105" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="106">
@@ -8435,22 +8444,22 @@
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>28</v>
@@ -8465,7 +8474,7 @@
         <v>31</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="O106" s="2" t="s">
         <v>32</v>
@@ -8488,8 +8497,8 @@
       <c r="U106" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>34</v>
+      <c r="V106" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="107">
@@ -8503,22 +8512,22 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>28</v>
@@ -8533,7 +8542,7 @@
         <v>31</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O107" s="2" t="s">
         <v>32</v>
@@ -8556,8 +8565,8 @@
       <c r="U107" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>34</v>
+      <c r="V107" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="108">
@@ -8571,22 +8580,22 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>28</v>
@@ -8601,10 +8610,10 @@
         <v>31</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="P108" s="2" t="s">
         <v>32</v>
@@ -8624,8 +8633,8 @@
       <c r="U108" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>34</v>
+      <c r="V108" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="109">
@@ -8639,22 +8648,22 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>28</v>
@@ -8669,10 +8678,10 @@
         <v>31</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P109" s="2" t="s">
         <v>32</v>
@@ -8692,8 +8701,8 @@
       <c r="U109" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>34</v>
+      <c r="V109" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="110">
@@ -8707,22 +8716,22 @@
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>28</v>
@@ -8740,7 +8749,7 @@
         <v>40</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="P110" s="2" t="s">
         <v>32</v>
@@ -8760,8 +8769,8 @@
       <c r="U110" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>34</v>
+      <c r="V110" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="111">
@@ -8775,22 +8784,22 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>28</v>
@@ -8805,10 +8814,10 @@
         <v>31</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="P111" s="2" t="s">
         <v>32</v>
@@ -8828,8 +8837,8 @@
       <c r="U111" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>34</v>
+      <c r="V111" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="112">
@@ -8843,22 +8852,22 @@
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>28</v>
@@ -8873,10 +8882,10 @@
         <v>31</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="P112" s="2" t="s">
         <v>32</v>
@@ -8911,22 +8920,22 @@
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>28</v>
@@ -8941,10 +8950,10 @@
         <v>31</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="P113" s="2" t="s">
         <v>32</v>
@@ -8979,22 +8988,22 @@
         <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>230</v>
+        <v>165</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>232</v>
+        <v>167</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>28</v>
@@ -9009,10 +9018,10 @@
         <v>31</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="P114" s="2" t="s">
         <v>32</v>
@@ -9032,8 +9041,8 @@
       <c r="U114" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>34</v>
+      <c r="V114" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="115">
@@ -9047,22 +9056,22 @@
         <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H115" s="1" t="s">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>31</v>
+        <v>236</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>28</v>
@@ -9080,7 +9089,7 @@
         <v>32</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="P115" s="2" t="s">
         <v>32</v>
@@ -9095,13 +9104,13 @@
         <v>32</v>
       </c>
       <c r="T115" s="2" t="s">
-        <v>235</v>
+        <v>32</v>
       </c>
       <c r="U115" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>34</v>
+      <c r="V115" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="116">
@@ -9115,10 +9124,10 @@
         <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>28</v>
@@ -9163,13 +9172,13 @@
         <v>32</v>
       </c>
       <c r="T116" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="U116" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>34</v>
+      <c r="V116" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="117">
@@ -9183,10 +9192,10 @@
         <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>28</v>
@@ -9222,7 +9231,7 @@
         <v>32</v>
       </c>
       <c r="Q117" s="2" t="s">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c r="R117" s="2" t="s">
         <v>32</v>
@@ -9236,8 +9245,8 @@
       <c r="U117" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V117" s="1" t="s">
-        <v>34</v>
+      <c r="V117" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="118">
@@ -9254,7 +9263,7 @@
         <v>241</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>28</v>
@@ -9304,8 +9313,8 @@
       <c r="U118" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>34</v>
+      <c r="V118" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="119">
@@ -9322,7 +9331,7 @@
         <v>244</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>28</v>
@@ -9358,7 +9367,7 @@
         <v>32</v>
       </c>
       <c r="Q119" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="R119" s="2" t="s">
         <v>32</v>
@@ -9367,13 +9376,13 @@
         <v>32</v>
       </c>
       <c r="T119" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="U119" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>34</v>
+      <c r="V119" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="120">
@@ -9387,10 +9396,10 @@
         <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>28</v>
@@ -9426,7 +9435,7 @@
         <v>32</v>
       </c>
       <c r="Q120" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="R120" s="2" t="s">
         <v>32</v>
@@ -9435,13 +9444,13 @@
         <v>32</v>
       </c>
       <c r="T120" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="U120" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>34</v>
+      <c r="V120" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="121">
@@ -9455,10 +9464,10 @@
         <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>28</v>
@@ -9494,7 +9503,7 @@
         <v>32</v>
       </c>
       <c r="Q121" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="R121" s="2" t="s">
         <v>32</v>
@@ -9503,13 +9512,13 @@
         <v>32</v>
       </c>
       <c r="T121" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="U121" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V121" s="2" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122">
@@ -9526,7 +9535,7 @@
         <v>250</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>28</v>
@@ -9562,7 +9571,7 @@
         <v>32</v>
       </c>
       <c r="Q122" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="R122" s="2" t="s">
         <v>32</v>
@@ -9594,7 +9603,7 @@
         <v>253</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>28</v>
@@ -9630,7 +9639,7 @@
         <v>32</v>
       </c>
       <c r="Q123" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="R123" s="2" t="s">
         <v>32</v>
@@ -9662,58 +9671,58 @@
         <v>256</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F124" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N124" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O124" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P124" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q124" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="R124" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S124" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T124" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="U124" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V124" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L124" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M124" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N124" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O124" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P124" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q124" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R124" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S124" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T124" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U124" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V124" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="125">
@@ -9727,22 +9736,22 @@
         <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>28</v>
@@ -9780,8 +9789,8 @@
       <c r="U125" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V125" s="1" t="s">
-        <v>34</v>
+      <c r="V125" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="126">
@@ -9795,22 +9804,22 @@
         <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="H126" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>28</v>
@@ -9848,8 +9857,8 @@
       <c r="U126" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>34</v>
+      <c r="V126" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="127">
@@ -9863,22 +9872,22 @@
         <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H127" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="I127" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>28</v>
@@ -9916,8 +9925,8 @@
       <c r="U127" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>34</v>
+      <c r="V127" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="128">
@@ -9931,22 +9940,22 @@
         <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>28</v>
@@ -9984,8 +9993,8 @@
       <c r="U128" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>34</v>
+      <c r="V128" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="129">
@@ -9999,22 +10008,22 @@
         <v>22</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>28</v>
@@ -10052,8 +10061,8 @@
       <c r="U129" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>34</v>
+      <c r="V129" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="130">
@@ -10067,22 +10076,22 @@
         <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>28</v>
@@ -10120,8 +10129,8 @@
       <c r="U130" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>34</v>
+      <c r="V130" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="131">
@@ -10135,22 +10144,22 @@
         <v>22</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>28</v>
@@ -10188,8 +10197,8 @@
       <c r="U131" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>34</v>
+      <c r="V131" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="132">
@@ -10203,22 +10212,22 @@
         <v>22</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="G132" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>28</v>
@@ -10236,7 +10245,7 @@
         <v>47</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="P132" s="2" t="s">
         <v>32</v>
@@ -10271,22 +10280,22 @@
         <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G133" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="H133" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>28</v>
@@ -10339,22 +10348,22 @@
         <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H134" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="I134" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>28</v>
@@ -10369,10 +10378,10 @@
         <v>31</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="P134" s="2" t="s">
         <v>32</v>
@@ -10392,8 +10401,8 @@
       <c r="U134" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>34</v>
+      <c r="V134" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="135">
@@ -10407,22 +10416,22 @@
         <v>22</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="G135" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>28</v>
@@ -10437,10 +10446,10 @@
         <v>31</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="P135" s="2" t="s">
         <v>32</v>
@@ -10460,8 +10469,8 @@
       <c r="U135" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>34</v>
+      <c r="V135" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="136">
@@ -10475,22 +10484,22 @@
         <v>22</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G136" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="H136" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>28</v>
@@ -10508,7 +10517,7 @@
         <v>63</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="P136" s="2" t="s">
         <v>32</v>
@@ -10543,22 +10552,22 @@
         <v>22</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H137" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="I137" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>28</v>
@@ -10573,10 +10582,10 @@
         <v>31</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="P137" s="2" t="s">
         <v>32</v>
@@ -10611,22 +10620,22 @@
         <v>22</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>278</v>
+        <v>85</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>28</v>
@@ -10641,10 +10650,10 @@
         <v>31</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="P138" s="2" t="s">
         <v>32</v>
@@ -10664,8 +10673,8 @@
       <c r="U138" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V138" s="1" t="s">
-        <v>34</v>
+      <c r="V138" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="139">
@@ -10679,22 +10688,22 @@
         <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G139" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="H139" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F139" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="I139" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>28</v>
@@ -10709,13 +10718,13 @@
         <v>31</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>285</v>
+        <v>219</v>
       </c>
       <c r="O139" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P139" s="2" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="Q139" s="2" t="s">
         <v>32</v>
@@ -10732,8 +10741,8 @@
       <c r="U139" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V139" s="1" t="s">
-        <v>34</v>
+      <c r="V139" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="140">
@@ -10750,19 +10759,19 @@
         <v>286</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>176</v>
+        <v>287</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>28</v>
@@ -10777,13 +10786,13 @@
         <v>31</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O140" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P140" s="2" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="Q140" s="2" t="s">
         <v>32</v>
@@ -10800,8 +10809,8 @@
       <c r="U140" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V140" s="1" t="s">
-        <v>34</v>
+      <c r="V140" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="141">
@@ -10815,22 +10824,22 @@
         <v>22</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>178</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>28</v>
@@ -10845,7 +10854,7 @@
         <v>31</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O141" s="2" t="s">
         <v>32</v>
@@ -10868,8 +10877,8 @@
       <c r="U141" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V141" s="1" t="s">
-        <v>34</v>
+      <c r="V141" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="142">
@@ -10883,22 +10892,22 @@
         <v>22</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>181</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>28</v>
@@ -10913,7 +10922,7 @@
         <v>31</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O142" s="2" t="s">
         <v>32</v>
@@ -10936,8 +10945,8 @@
       <c r="U142" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V142" s="1" t="s">
-        <v>34</v>
+      <c r="V142" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="143">
@@ -10951,22 +10960,22 @@
         <v>22</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>28</v>
@@ -10981,7 +10990,7 @@
         <v>31</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O143" s="2" t="s">
         <v>32</v>
@@ -11004,8 +11013,8 @@
       <c r="U143" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V143" s="1" t="s">
-        <v>34</v>
+      <c r="V143" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="144">
@@ -11019,61 +11028,129 @@
         <v>22</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="I144" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O144" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P144" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q144" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R144" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S144" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T144" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U144" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V144" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K144" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L144" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M144" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N144" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="O144" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P144" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q144" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R144" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S144" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T144" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U144" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V144" s="1" t="s">
-        <v>34</v>
+      <c r="G145" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O145" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P145" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q145" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R145" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S145" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T145" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U145" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V145" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-SAL.xlsx
+++ b/Excel-XLSX/UN-SAL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>hu58KU</t>
+    <t>8DNmNZ</t>
   </si>
   <si>
     <t>1972</t>
@@ -918,6 +918,15 @@
     <t>149</t>
   </si>
   <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>HAI</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
     <t>151</t>
   </si>
   <si>
@@ -930,13 +939,16 @@
     <t>154</t>
   </si>
   <si>
-    <t>54412</t>
-  </si>
-  <si>
-    <t>133964</t>
+    <t>114393</t>
+  </si>
+  <si>
+    <t>255433</t>
   </si>
   <si>
     <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1333,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V157"/>
+  <dimension ref="A1:V158"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -11233,7 +11245,7 @@
         <v>80</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P146" s="2" t="s">
         <v>34</v>
@@ -11301,7 +11313,7 @@
         <v>34</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="P147" s="2" t="s">
         <v>34</v>
@@ -11366,10 +11378,10 @@
         <v>32</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P148" s="2" t="s">
         <v>34</v>
@@ -11437,7 +11449,7 @@
         <v>34</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="P149" s="2" t="s">
         <v>34</v>
@@ -11502,10 +11514,10 @@
         <v>32</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="P150" s="2" t="s">
         <v>34</v>
@@ -11546,16 +11558,16 @@
         <v>296</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>157</v>
+        <v>300</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>158</v>
+        <v>301</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>159</v>
+        <v>302</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>29</v>
@@ -11570,10 +11582,10 @@
         <v>32</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="P151" s="2" t="s">
         <v>34</v>
@@ -11608,22 +11620,22 @@
         <v>22</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>296</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>29</v>
@@ -11638,10 +11650,10 @@
         <v>32</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="P152" s="2" t="s">
         <v>34</v>
@@ -11676,22 +11688,22 @@
         <v>22</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>296</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>29</v>
@@ -11706,10 +11718,10 @@
         <v>32</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="P153" s="2" t="s">
         <v>34</v>
@@ -11744,22 +11756,22 @@
         <v>22</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>296</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>29</v>
@@ -11774,10 +11786,10 @@
         <v>32</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>190</v>
+        <v>49</v>
       </c>
       <c r="P154" s="2" t="s">
         <v>34</v>
@@ -11812,22 +11824,22 @@
         <v>22</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>296</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J155" s="2" t="s">
         <v>29</v>
@@ -11842,16 +11854,16 @@
         <v>32</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="P155" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q155" s="2" t="s">
-        <v>216</v>
+        <v>34</v>
       </c>
       <c r="R155" s="2" t="s">
         <v>34</v>
@@ -11860,13 +11872,13 @@
         <v>34</v>
       </c>
       <c r="T155" s="2" t="s">
-        <v>304</v>
+        <v>34</v>
       </c>
       <c r="U155" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V155" s="2" t="s">
-        <v>305</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156">
@@ -11886,16 +11898,16 @@
         <v>296</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>263</v>
+        <v>29</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>264</v>
+        <v>30</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>265</v>
+        <v>31</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>29</v>
@@ -11910,7 +11922,7 @@
         <v>32</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="O156" s="2" t="s">
         <v>34</v>
@@ -11919,7 +11931,7 @@
         <v>34</v>
       </c>
       <c r="Q156" s="2" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="R156" s="2" t="s">
         <v>34</v>
@@ -11928,13 +11940,13 @@
         <v>34</v>
       </c>
       <c r="T156" s="2" t="s">
-        <v>34</v>
+        <v>307</v>
       </c>
       <c r="U156" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V156" s="2" t="s">
-        <v>34</v>
+        <v>308</v>
       </c>
     </row>
     <row r="157">
@@ -11948,60 +11960,128 @@
         <v>22</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>296</v>
       </c>
       <c r="F157" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N157" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O157" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P157" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q157" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R157" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S157" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T157" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U157" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V157" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F158" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="G158" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H157" s="1" t="s">
+      <c r="H158" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="I157" s="1" t="s">
+      <c r="I158" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K157" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L157" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M157" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N157" s="2" t="s">
+      <c r="J158" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N158" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O157" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="P157" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q157" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R157" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S157" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T157" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U157" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V157" s="2" t="s">
+      <c r="O158" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P158" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q158" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R158" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S158" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T158" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U158" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V158" s="2" t="s">
         <v>34</v>
       </c>
     </row>
